--- a/주황색 자료들.xlsx
+++ b/주황색 자료들.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="84" windowWidth="22056" windowHeight="9264" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="84" windowWidth="22056" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="환승지도" sheetId="1" r:id="rId1"/>
-    <sheet name="지하철 호선들" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="지하철 호선들" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
   <si>
     <t>가산디지털단지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,10 @@
   </si>
   <si>
     <t>http://meis.kr/m/mMetroLine.jsp?line=112&amp;afc=1013&amp;sel=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안암역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -1065,9 +1069,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1211,17 +1236,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>